--- a/SooP기능명세서.xlsx
+++ b/SooP기능명세서.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\soop_rep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Soop\soop_rep\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Post_New" sheetId="1" r:id="rId1"/>
-    <sheet name="Post_Timeline" sheetId="3" r:id="rId2"/>
+    <sheet name="SooP Home_POST" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Post 등록 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사진 및 동영상에 위치정보 존재시 지도에 점으로 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>각 사진/동영상별 아래 부분에 Text입력 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,14 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다른 사람의 Blog일 경우 표시. 쪽지 전송</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다른 사람의 Blog일 경우 표시. 팔로잉/언팔로잉 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>탭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,31 +147,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>내 Post(Timeline)에 등록(직접등록/스크랩)된 경우 SooP버튼 표시. SooPing 후 UnSooP 으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도 아래 애드몹 또는 자체 광고 표시(광고 사이즈 확인 필요). 위치기반/사용자 타겟기반.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post Ownership에 따른 광고 클릭 횟수/동영상 광고 재생시간 기록 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크롤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크롤용 방향표를 두고 Post단위를 빠른 이동(아래화살표 최초 클릭시 해당 Post의 마지막부분으로 이동. Post마지막 부분일 경우 다음 Post의 처음위치로 이동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post에서 등록한 내용 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도에 구글맵연동 버튼 필요.(현재 위치에서 지도에 표시된 위치로 길찾기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글에서 제공하는 음식점/호텔정보를 사진이 가지고 있는 위치정보와 매핑 가능 여부?? 가능 할 경우 지도의 해당위치 클릭시 구글맵 연동으로 해당 지역 정보 제공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 및 동영상에 위치정보 존재시 지도에 점으로 표시(사진별로 표시여부를 선택가능 해야함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>대표사진/Nickname/SooP Name(SooPing 후) 표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내 Post(Timeline)에 등록(직접등록/스크랩)된 경우 SooP버튼 표시. SooPing 후 UnSooP 으로 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post에서 등록한 내용 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blog 홈화면(내 Blog/다른 사람의 Blog볼 경우 동일 구조) - 웹화면일 경우 HTML 사용자에 의해 수정가능해야함. 개인광고 추가 목적.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도 아래 애드몹 또는 자체 광고 표시(광고 사이즈 확인 필요). 위치기반/사용자 타겟기반.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도에 구글맵연동 버튼 필요.(현재 위치에서 지도에 표시된 위치로 길찾기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post Ownership에 따른 광고 클릭 횟수/동영상 광고 재생시간 기록 필요</t>
+    <t>SooP 홈화면(내 SooP home/다른 사람의 SooP home을볼 경우 동일 구조) - 웹화면일 경우 HTML 사용자에 의해 수정가능해야함. 개인광고 추가 목적.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 사람의 SooP home일 경우 표시. 쪽지 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 사람의 SooP home일 경우 표시. 팔로잉/언팔로잉 표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,26 +316,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,23 +528,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -568,23 +563,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -739,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A30:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -756,7 +734,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>5</v>
@@ -766,10 +744,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+      <c r="A32" s="6">
         <v>1</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -777,17 +755,17 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+      <c r="A34" s="6">
         <v>2</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -795,17 +773,17 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -813,10 +791,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -824,10 +802,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -835,7 +813,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" s="2"/>
     </row>
@@ -844,10 +822,10 @@
         <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -855,10 +833,10 @@
         <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -877,10 +855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A26:C41"/>
+  <dimension ref="A26:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -891,12 +869,12 @@
   <sheetData>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
@@ -906,32 +884,32 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="A28" s="6">
         <v>1</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>2</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -939,10 +917,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -950,10 +928,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -961,10 +939,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -972,71 +950,89 @@
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>7</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>7</v>
-      </c>
-      <c r="B35" s="4" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="2" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="10" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>8</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="10" t="s">
+      <c r="C43" s="5" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B35:B41"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B35:B42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SooP기능명세서.xlsx
+++ b/SooP기능명세서.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Post_New" sheetId="1" r:id="rId1"/>
     <sheet name="SooP Home_POST" sheetId="3" r:id="rId2"/>
+    <sheet name="SooP" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Post 등록 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +197,18 @@
   </si>
   <si>
     <t>다른 사람의 SooP home일 경우 표시. 팔로잉/언팔로잉 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wish Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5단계의 점수 구간을 가짐. (0~20, 21 ~ 40, 41 ~ 60, 61 ~ 80, 81 ~ 100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계별. 단어(oh! Sorry(품바), So So, Good(나무늘보), Surprise(고려), My Precious(골룸)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,6 +454,44 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="5438095" cy="5076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3629025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542196</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>56514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5372100" y="0"/>
+          <a:ext cx="5828571" cy="5085714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -855,10 +906,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A26:C43"/>
+  <dimension ref="A26:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -957,7 +1008,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="A35" s="6">
         <v>7</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -968,74 +1019,107 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
+      <c r="A43" s="6">
         <v>8</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>9</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="B35:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SooP기능명세서.xlsx
+++ b/SooP기능명세서.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Soop\soop_rep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\soop_rep\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Post_New" sheetId="1" r:id="rId1"/>
     <sheet name="SooP Home_POST" sheetId="3" r:id="rId2"/>
-    <sheet name="SooP" sheetId="4" r:id="rId3"/>
+    <sheet name="팔로잉리스트" sheetId="4" r:id="rId3"/>
+    <sheet name="팔로워리스트" sheetId="5" r:id="rId4"/>
+    <sheet name="SooP" sheetId="6" r:id="rId5"/>
+    <sheet name="Following" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>Post 등록 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,67 +151,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>지도 아래 애드몹 또는 자체 광고 표시(광고 사이즈 확인 필요). 위치기반/사용자 타겟기반.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post Ownership에 따른 광고 클릭 횟수/동영상 광고 재생시간 기록 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크롤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크롤용 방향표를 두고 Post단위를 빠른 이동(아래화살표 최초 클릭시 해당 Post의 마지막부분으로 이동. Post마지막 부분일 경우 다음 Post의 처음위치로 이동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post에서 등록한 내용 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도에 구글맵연동 버튼 필요.(현재 위치에서 지도에 표시된 위치로 길찾기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SooP 홈화면(내 SooP home/다른 사람의 SooP home을볼 경우 동일 구조) - 웹화면일 경우 HTML 사용자에 의해 수정가능해야함. 개인광고 추가 목적.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 사람의 SooP home일 경우 표시. 쪽지 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wish Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글에서 제공하는 음식점/호텔정보를 사진이 가지고 있는 위치정보와 매핑. 지도의 해당위치 클릭시 구글맵 연동으로 해당 지역 정보 제공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Following List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔로워/팔로잉 클릭시 List 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 팔로윙 리스트일 경우 알림/알림취소, UnFollow 로 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 사람의 팔로윙 리스트이면서 내 팔로윙 리스트와 중복되지 않은 사람의 리스트일 경우 Follow 로 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 대표사진/Nickname/소개 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 Following 하지 않고 있는 사용자에 대해 Follow 표시. Following 중인 경우 UnFollow 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 팔로워, 다른 사람의 팔로워 리스트 조회시 동일함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Follower List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 및 동영상에 위치정보 존재시 지도에 점으로 표시(사진별로 표시여부를 선택가능 해야함). 구글에서 제공하는 위치정보와 매칭될 경우 음식점/호텔/관광지를 점에 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SooP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 로딩시 여러 개의 동선(이때까지 생성한 SooP)이 하나의 지도에 표시되어야함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SooP 동선 또는 점을 선택시 지도 아래부분에 선택된 SooP의 대표사진(블로그의 첫번째 사진)과 SooP이름/설명등을 포함한 요약정보 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SooP 동선 또는 점을 선택시 선택된 SooP의 동선만 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표사진/Nickname/SooP Name(SooPing 후), 비용, 소요시간, 내 평점 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SooP요약정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요약정보 클릭시 선택된 SooP에 해당하는 Post List를 Post화면에 표시 또는 요약정보 밑으로 해당 Post를 조회해서 바로 표시(확인 필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SooP에 포함된 Post의 비용(합계)/소요시간(합계)/평점(평균)을 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개/비공개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록화면의 최상단. 사용자 대표사진/사용자 Nickname/공개여부/공개범위(전체/팔로잉/나만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>내 Post(Timeline)에 등록(직접등록/스크랩)된 경우 SooP버튼 표시. SooPing 후 UnSooP 으로 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지도 아래 애드몹 또는 자체 광고 표시(광고 사이즈 확인 필요). 위치기반/사용자 타겟기반.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post Ownership에 따른 광고 클릭 횟수/동영상 광고 재생시간 기록 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스크롤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스크롤용 방향표를 두고 Post단위를 빠른 이동(아래화살표 최초 클릭시 해당 Post의 마지막부분으로 이동. Post마지막 부분일 경우 다음 Post의 처음위치로 이동)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post에서 등록한 내용 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도에 구글맵연동 버튼 필요.(현재 위치에서 지도에 표시된 위치로 길찾기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구글에서 제공하는 음식점/호텔정보를 사진이 가지고 있는 위치정보와 매핑 가능 여부?? 가능 할 경우 지도의 해당위치 클릭시 구글맵 연동으로 해당 지역 정보 제공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진 및 동영상에 위치정보 존재시 지도에 점으로 표시(사진별로 표시여부를 선택가능 해야함)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대표사진/Nickname/SooP Name(SooPing 후) 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SooP 홈화면(내 SooP home/다른 사람의 SooP home을볼 경우 동일 구조) - 웹화면일 경우 HTML 사용자에 의해 수정가능해야함. 개인광고 추가 목적.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다른 사람의 SooP home일 경우 표시. 쪽지 전송</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다른 사람의 SooP home일 경우 표시. 팔로잉/언팔로잉 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wish Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5단계의 점수 구간을 가짐. (0~20, 21 ~ 40, 41 ~ 60, 61 ~ 80, 81 ~ 100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단계별. 단어(oh! Sorry(품바), So So, Good(나무늘보), Surprise(고려), My Precious(골룸)</t>
+    <t>More</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 - 관리자에게 쪽지 전송.(이미지 첨부기능 필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차단 - 사용자 차단 여부 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 사람의 SooP home일 경우 표시. 팔로잉/언팔로잉 표시. 차단된 사용자일 경우 차단해제 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5단계의 점수 구간을 가짐. (0~20, 21 ~ 40, 41 ~ 60, 61 ~ 80, 81 ~ 100). Post Owner 별로 평가 평가 횟수 제한(같은 사람의 Post를 N개 평가 제한)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계별. 단어(oh! Sorry(품바), So So, Good(나무늘보), Surprise!(고려, 알렉스), My Precious(골룸) 사운드 효과 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글맵 연동(확인 필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Following</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Following한 User의 Timeline. 등록순으로 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록가능한 게이지는 다른 사람의 Post일 경우 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>More버튼(디자인확인)으로 다른 사용자의 SooP을 스크랩해서 내 SooP Home의 Post에 간략정보(동선) 및 해당 SooP으로 링크 Post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +349,14 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -316,7 +435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,6 +457,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,8 +475,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -378,16 +512,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>170643</xdr:colOff>
+      <xdr:colOff>151595</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>104029</xdr:rowOff>
+      <xdr:rowOff>75457</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
+        <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8A9CAE-70E4-440F-9059-6E10A4E9F2D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF83E556-7FDE-4CC5-A388-BD717F447E74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -404,7 +538,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6457143" cy="5971429"/>
+          <a:ext cx="6438095" cy="5942857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -420,6 +554,99 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3629025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542196</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>56514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5372100" y="0"/>
+          <a:ext cx="5828571" cy="5085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3653400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4514D9-57A0-487B-BB77-813AB687B4D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="5396474" cy="5000625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -427,16 +654,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3695020</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>46990</xdr:rowOff>
+      <xdr:colOff>4714088</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>170721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0343BD28-22E3-47DE-9727-E2903E1B5AB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AADBAED-AD29-4D8F-970A-181581232B9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -453,7 +680,154 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5438095" cy="5076190"/>
+          <a:ext cx="6295238" cy="5828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2190279</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01162BE-55CD-4BAC-962C-FCB2F08E8D41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3771429" cy="5876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5675975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D8E7B8-A774-439D-94CF-E11878CB16B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7400000" cy="6009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1885499</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42145C93-8326-43A4-945C-66CA0344BA13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3609524" cy="5885714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -465,19 +839,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3629025</xdr:colOff>
+      <xdr:colOff>1857375</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>542196</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304071</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>56514</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401A5579-AA8B-4DDC-A747-2767CA56DF11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -490,7 +870,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5372100" y="0"/>
+          <a:off x="3581400" y="0"/>
           <a:ext cx="5828571" cy="5085714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -579,6 +959,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -614,6 +1011,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -766,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A30:C41"/>
+  <dimension ref="A30:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -799,53 +1213,53 @@
         <v>1</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>2</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="2" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
-        <v>2</v>
-      </c>
-      <c r="B34" s="6" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>3</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>3</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -853,10 +1267,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -864,38 +1278,49 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -906,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A26:C45"/>
+  <dimension ref="A26:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -920,7 +1345,7 @@
   <sheetData>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -935,10 +1360,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="9">
         <v>1</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -946,8 +1371,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
@@ -971,7 +1396,7 @@
         <v>22</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -982,7 +1407,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -993,117 +1418,234 @@
         <v>24</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="9">
         <v>6</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
-        <v>7</v>
-      </c>
-      <c r="B35" s="9" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>8</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="5" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="5" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>9</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>10</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
-        <v>8</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
-        <v>9</v>
-      </c>
-      <c r="B45" s="10" t="s">
+      <c r="C46" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A30:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>1</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>2</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1111,15 +1653,337 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A30:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>1</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>2</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A30:C43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>1</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>2</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A30:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>1</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>2</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SooP기능명세서.xlsx
+++ b/SooP기능명세서.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\soop_rep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Soop\soop_rep\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Post_New" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,15 @@
     <sheet name="팔로워리스트" sheetId="5" r:id="rId4"/>
     <sheet name="SooP" sheetId="6" r:id="rId5"/>
     <sheet name="Following" sheetId="8" r:id="rId6"/>
+    <sheet name="SooPing" sheetId="9" r:id="rId7"/>
+    <sheet name="Search_SooP" sheetId="10" r:id="rId8"/>
+    <sheet name="Search_Post" sheetId="11" r:id="rId9"/>
+    <sheet name="Search_Img" sheetId="12" r:id="rId10"/>
+    <sheet name="Search_SooPer" sheetId="13" r:id="rId11"/>
+    <sheet name="Activities_Following" sheetId="14" r:id="rId12"/>
+    <sheet name="Activities_MsgBox" sheetId="15" r:id="rId13"/>
+    <sheet name="Planning_SooP" sheetId="16" r:id="rId14"/>
+    <sheet name="Planning_Post" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="120">
   <si>
     <t>Post 등록 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +329,189 @@
   </si>
   <si>
     <t>More버튼(디자인확인)으로 다른 사용자의 SooP을 스크랩해서 내 SooP Home의 Post에 간략정보(동선) 및 해당 SooP으로 링크 Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Planning용 SooP으로 친구 초대. 친구가 초대 수락시 초대한 사용자의 SooP과 SooP에 적용되어 있는 Post를 Planning Tab에서 볼 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대버튼 클릭수 초대 팝업이 나오고 Planning SooP에서 작성된 Planning SooP List가 나옴. 초대가 수락된 친구의 리스트는 Planning SooP의 Group List에서 SooP단위로 조회가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post에서 SooP버튼을 통해 연결. 최초 선택되는 SooP은 가장 최근에 생성된 SooP.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post에 위치정보가 있는 경우 해당 위치를 선택된 SooP에 기존 Pin과 다른 색상으로 Simulation해서 보여줌.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post에 위치정보가 없는 경우 기존 Pin위치를 선택 또는 임의 위치선택 후 저장. 저장시 SooP버튼을 통해 넘어온 Post의 위치정보 Update 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New 버튼을 통해 새로운 SooP을 생성. 요약정보에서 SooP이름 및 요약설명 수정 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SooP화면과 다르게 요약정보를 숨김 표시 할 수 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요약정보를 좌우로 넘기면 선택된 SooP에 기존 Pin과 다른 색상으로 Simulation 해서 보여줌.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SooPing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search_SooP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치기반 검색. 검색 키워드에 해당하는 위치를 가지는 SooP List 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도 클릭시 검색된 SooP의 List가 SooP화면처럼 지도에 각각 표시. 요약정보를 숨김 표시할 수 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그 및 SooP의 비용/소요시간/평점/Wish Power를 필터에 저장 가능. Reset 전까지 해당 기준 유지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SooP의 More</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크랩 또는 공유기능. (스크랩시 내 Post에 동선정보만을 가지는 링크용 Post생성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유(페북, 트위트, 카카오톡, 라인 등…확인 필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search_Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그 및 SooP의 비용/소요시간/평점/Wish Power를 필터에 저장 가능. Reset 전까지 해당 기준 유지. Search_SooP과 별도로 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치기반 검색. 검색 키워드에 해당하는 위치를 가지는 Post조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 클릭시 확대 표시 후 해당 Post로 연결 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 명 또는 사용자 설명으로 사용자 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Following의 신규 Post에 대한 Alarm 로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message 주고 받은 사람의 List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 클릭시 Message 내용 표시 및 Message 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Planning SooP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SooP화면과 거의 동일하나 SooPing이 Post없이 수정버튼을 통해 바로 새로운 위치를 선택 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요약정보 숨김기능 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New버튼을 통해 새로운 Planning SooP생성 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group 버튼을 통해 초대받은 사용자 List 표시 및 취소(추방) 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Planning_SooP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activities_MsgBox</t>
+  </si>
+  <si>
+    <t>Activities_Following</t>
+  </si>
+  <si>
+    <t>Search_SooPer</t>
+  </si>
+  <si>
+    <t>Search_Img</t>
+  </si>
+  <si>
+    <t>Planning_Post</t>
+  </si>
+  <si>
+    <t>Planning Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SooP Home의 Post와 동일하나 Planning 용으로 스크랩된 Post만 존재. 초대받은 사람의 경우만 초대된 SooP에 해당하는 Post조회가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SooP 버튼(변경 가능)을 통해 Planning SooP구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +519,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +547,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -435,7 +635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -466,12 +666,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -482,6 +676,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,6 +765,456 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3514070</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5238095" cy="5209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1618832</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142229</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3342857" cy="5171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1523594</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>170800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3247619" cy="5200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1542642</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>8869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3266667" cy="5247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4676376</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3209925" y="0"/>
+          <a:ext cx="3190476" cy="5209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3999784</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>56488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5723809" cy="5295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2600325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3076575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4324350" y="1362075"/>
+          <a:ext cx="476250" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>New</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3257549</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3838574</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4981574" y="4276725"/>
+          <a:ext cx="581025" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Group</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4095750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180284</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>189849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="9525"/>
+          <a:ext cx="5523809" cy="5209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1533118</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>132705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3257143" cy="5161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -599,25 +1264,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3653400</xdr:colOff>
+      <xdr:colOff>3695700</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4514D9-57A0-487B-BB77-813AB687B4D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -630,8 +1289,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="0"/>
-          <a:ext cx="5396474" cy="5000625"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5438775" cy="4867274"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -883,6 +1542,269 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4018832</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>56488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5742857" cy="5295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2609851</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3086101</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333876" y="1352550"/>
+          <a:ext cx="476250" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>New</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3923594</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5647619" cy="5076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4019550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>656808</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>75538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5743575" y="19050"/>
+          <a:ext cx="3333333" cy="5295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>532990</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>46964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9105900" y="0"/>
+          <a:ext cx="3276190" cy="5285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3809308</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>199371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5533333" cy="5228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -959,23 +1881,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1011,23 +1916,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1182,7 +2070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A30:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -1220,10 +2108,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="A33" s="14">
         <v>2</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1231,17 +2119,17 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="A35" s="14">
         <v>3</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1249,15 +2137,15 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
@@ -1329,12 +2217,638 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A28:C40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>1</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>2</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="18"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="19"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A28:C40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>1</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="18"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="19"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A28:C40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>1</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="18"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="19"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A28:C40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>1</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>2</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="18"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="19"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A28:C39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>1</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>2</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A31:A33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A28:C39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <v>1</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="18"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A26:C46"/>
+  <dimension ref="A26:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1360,10 +2874,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+      <c r="A28" s="14">
         <v>1</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1371,8 +2885,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1411,135 +2925,155 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="14">
         <v>5</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
-        <v>6</v>
-      </c>
-      <c r="B34" s="9" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="14">
+        <v>7</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="2" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>7</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
-        <v>8</v>
-      </c>
-      <c r="B37" s="12" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
+        <v>9</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="5" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="5" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="5" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="15" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="5" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="5" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="5" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
-        <v>9</v>
-      </c>
-      <c r="B45" s="6" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>10</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
-        <v>10</v>
-      </c>
-      <c r="B46" s="8" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
+        <v>11</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1579,10 +3113,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
+      <c r="A32" s="17">
         <v>1</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1590,8 +3124,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="2" t="s">
         <v>44</v>
       </c>
@@ -1608,13 +3142,13 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1684,10 +3218,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
+      <c r="A32" s="17">
         <v>1</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1695,8 +3229,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="2" t="s">
         <v>48</v>
       </c>
@@ -1713,13 +3247,13 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1762,8 +3296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A30:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1789,10 +3323,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="A32" s="14">
         <v>1</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1800,24 +3334,24 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="14" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="A35" s="14">
         <v>2</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1825,23 +3359,23 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="14" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="14" t="s">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1879,7 +3413,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1887,7 +3422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A30:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -1925,10 +3460,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="A33" s="14">
         <v>2</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1936,20 +3471,20 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1986,4 +3521,346 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A28:C40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <v>1</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="A30:A37"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A28:C40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" activeCellId="1" sqref="A30:C30 A32:C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>1</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>2</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>3</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
+        <v>4</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A28:C40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>1</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>2</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="18"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="19"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SooP기능명세서.xlsx
+++ b/SooP기능명세서.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Soop\soop_rep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\soop_rep\soop_rep\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Post_New" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="Activities_MsgBox" sheetId="15" r:id="rId13"/>
     <sheet name="Planning_SooP" sheetId="16" r:id="rId14"/>
     <sheet name="Planning_Post" sheetId="17" r:id="rId15"/>
+    <sheet name="Account" sheetId="18" r:id="rId16"/>
+    <sheet name="SooP Point" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="137">
   <si>
     <t>Post 등록 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,10 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초대버튼 클릭수 초대 팝업이 나오고 Planning SooP에서 작성된 Planning SooP List가 나옴. 초대가 수락된 친구의 리스트는 Planning SooP의 Group List에서 SooP단위로 조회가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Post에서 SooP버튼을 통해 연결. 최초 선택되는 SooP은 가장 최근에 생성된 SooP.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -512,6 +510,77 @@
   </si>
   <si>
     <t>SooP 버튼(변경 가능)을 통해 Planning SooP구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SooP Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌이체, 인앱결제, Paypal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP History</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래내역 월별 history 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP Analytic</t>
+  </si>
+  <si>
+    <t>SP Anaytic 조회. 그래프나..단순 수치. 확인 필요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대버튼 클릭수 초대 팝업이 나오고 Planning SooP에서 작성된 Planning SooP List가 나옴. 초대가 수락된 친구의 리스트는 Planning SooP의 Group List에서 SooP단위로 조회가능. 초대시 상대방에게 알림이나 쪽지로 수락확인 필요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push Alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 팔로윙 Post등록 Alarm 설정, 내 Post에 대한 평가/댓글 Alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interconnection account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 고려안함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +588,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,6 +624,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="HanSans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -635,7 +717,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -681,12 +763,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -697,6 +773,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -736,7 +830,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF83E556-7FDE-4CC5-A388-BD717F447E74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -782,7 +876,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -825,7 +925,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -868,7 +974,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -911,7 +1023,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -949,7 +1067,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -992,7 +1116,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1030,7 +1160,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4"/>
+        <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1088,7 +1224,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5"/>
+        <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1146,7 +1288,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1189,7 +1337,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1204,6 +1358,324 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="3257143" cy="5161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1952165</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>75457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAE415A-92DE-47F4-8A7D-B3CBD68231CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3676190" cy="5942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5590726</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>46886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02680A4-523D-414B-A2A5-A5C93D15DE19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724275" y="0"/>
+          <a:ext cx="3590476" cy="5914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5581650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409127</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>199293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71E4E6D-A453-4B39-82DB-B605A3038B27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7305675" y="0"/>
+          <a:ext cx="3580952" cy="5857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5524052</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>75461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE968C0-E0B2-49FD-A3FA-8810DE95F6D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="28575"/>
+          <a:ext cx="3580952" cy="5914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1952165</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>75457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26D99EC-55ED-4A47-8A85-C75B1094FFB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3676190" cy="5942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5400675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209105</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8792</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{353A82F4-1475-4780-8135-6C45A7702D06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7124700" y="9525"/>
+          <a:ext cx="3561905" cy="5866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485307</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>199293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6541E93C-5944-4406-B417-7FC09EA18FB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10648950" y="0"/>
+          <a:ext cx="3742857" cy="5857143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1276,7 +1748,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1322,7 +1800,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AADBAED-AD29-4D8F-970A-181581232B9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1849,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01162BE-55CD-4BAC-962C-FCB2F08E8D41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1898,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D8E7B8-A774-439D-94CF-E11878CB16B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1469,7 +1947,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42145C93-8326-43A4-945C-66CA0344BA13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1513,7 +1991,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401A5579-AA8B-4DDC-A747-2767CA56DF11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1559,7 +2037,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1597,7 +2081,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4"/>
+        <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1660,7 +2150,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1698,7 +2194,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1736,7 +2238,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1779,7 +2287,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1881,6 +2395,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1916,6 +2447,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2074,18 +2622,18 @@
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="61.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -2096,7 +2644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="6">
         <v>1</v>
       </c>
@@ -2107,50 +2655,50 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="14">
+    <row r="33" spans="1:3">
+      <c r="A33" s="19">
         <v>2</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+    <row r="34" spans="1:3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="14">
+    <row r="35" spans="1:3">
+      <c r="A35" s="19">
         <v>3</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
+    <row r="36" spans="1:3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
+    <row r="37" spans="1:3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -2161,7 +2709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>5</v>
       </c>
@@ -2172,7 +2720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>6</v>
       </c>
@@ -2181,7 +2729,7 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>7</v>
       </c>
@@ -2192,7 +2740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>8</v>
       </c>
@@ -2225,18 +2773,18 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="10" t="s">
         <v>17</v>
       </c>
@@ -2247,69 +2795,69 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="9">
         <v>1</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="10">
         <v>2</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="18"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="19"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="12"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="12"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="2"/>
@@ -2333,18 +2881,18 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="10" t="s">
         <v>17</v>
       </c>
@@ -2355,63 +2903,63 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="9">
         <v>1</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="18"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="19"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="12"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="12"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="2"/>
@@ -2435,18 +2983,18 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="10" t="s">
         <v>17</v>
       </c>
@@ -2457,63 +3005,63 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="9">
         <v>1</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="18"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="19"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="12"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="12"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="2"/>
@@ -2537,18 +3085,18 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="10" t="s">
         <v>17</v>
       </c>
@@ -2559,69 +3107,69 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="9">
         <v>1</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="10">
         <v>2</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="18"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="19"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="12"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="12"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="2"/>
@@ -2641,22 +3189,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A28:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="10" t="s">
         <v>17</v>
       </c>
@@ -2667,68 +3215,68 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="9">
         <v>1</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="19">
+        <v>2</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
-        <v>2</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="12"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="12"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="2"/>
@@ -2748,22 +3296,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A28:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="10" t="s">
         <v>17</v>
       </c>
@@ -2774,60 +3322,60 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
+    <row r="30" spans="1:3">
+      <c r="A30" s="19">
         <v>1</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="18"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="12"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="12"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="2"/>
@@ -2843,26 +3391,242 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A31:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="14">
+        <v>1</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="15">
+        <v>2</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="15">
+        <v>3</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="15">
+        <v>4</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="15">
+        <v>5</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A31:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="14">
+        <v>1</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="15">
+        <v>2</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="15">
+        <v>3</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="15">
+        <v>4</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="15">
+        <v>5</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A26:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -2873,25 +3637,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
+    <row r="28" spans="1:3">
+      <c r="A28" s="19">
         <v>1</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+    <row r="29" spans="1:3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -2902,7 +3666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -2913,7 +3677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -2924,25 +3688,25 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="14">
+    <row r="33" spans="1:3">
+      <c r="A33" s="19">
         <v>5</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="19" t="s">
         <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
@@ -2953,25 +3717,25 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="14">
+    <row r="36" spans="1:3">
+      <c r="A36" s="19">
         <v>7</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="19" t="s">
         <v>62</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
+    <row r="37" spans="1:3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>8</v>
       </c>
@@ -2982,67 +3746,67 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="14">
+    <row r="39" spans="1:3">
+      <c r="A39" s="19">
         <v>9</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
+    <row r="40" spans="1:3">
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
+    <row r="41" spans="1:3">
+      <c r="A41" s="21"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
+    <row r="42" spans="1:3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
+    <row r="43" spans="1:3">
+      <c r="A43" s="21"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
+    <row r="44" spans="1:3">
+      <c r="A44" s="21"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
+    <row r="45" spans="1:3">
+      <c r="A45" s="21"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="17"/>
+    <row r="46" spans="1:3">
+      <c r="A46" s="20"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="6">
         <v>10</v>
       </c>
@@ -3053,7 +3817,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" s="8">
         <v>11</v>
       </c>
@@ -3090,18 +3854,18 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
@@ -3112,25 +3876,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
+    <row r="32" spans="1:3">
+      <c r="A32" s="22">
         <v>1</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+    <row r="33" spans="1:3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" s="7">
         <v>2</v>
       </c>
@@ -3141,37 +3905,37 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="2"/>
@@ -3195,18 +3959,18 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
@@ -3217,25 +3981,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
+    <row r="32" spans="1:3">
+      <c r="A32" s="22">
         <v>1</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+    <row r="33" spans="1:3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" s="7">
         <v>2</v>
       </c>
@@ -3246,37 +4010,37 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="2"/>
@@ -3300,18 +4064,18 @@
       <selection activeCell="A31" sqref="A31:XFD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
@@ -3322,84 +4086,84 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="14">
+    <row r="32" spans="1:3">
+      <c r="A32" s="19">
         <v>1</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
+    <row r="33" spans="1:3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+    <row r="34" spans="1:3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="14">
+    <row r="35" spans="1:3">
+      <c r="A35" s="19">
         <v>2</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
+    <row r="36" spans="1:3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
+    <row r="37" spans="1:3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
+    <row r="38" spans="1:3">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="2"/>
@@ -3426,18 +4190,18 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
@@ -3448,7 +4212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="7">
         <v>1</v>
       </c>
@@ -3459,55 +4223,55 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="14">
+    <row r="33" spans="1:3">
+      <c r="A33" s="19">
         <v>2</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+    <row r="34" spans="1:3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="2"/>
@@ -3531,18 +4295,18 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="10" t="s">
         <v>17</v>
       </c>
@@ -3553,73 +4317,73 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
+    <row r="30" spans="1:3">
+      <c r="A30" s="19">
         <v>1</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="2" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="18" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="2" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
+    <row r="36" spans="1:3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="12"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
+    <row r="37" spans="1:3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="12"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="2"/>
@@ -3643,18 +4407,18 @@
       <selection activeCell="A32" activeCellId="1" sqref="A30:C30 A32:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="10" t="s">
         <v>17</v>
       </c>
@@ -3665,83 +4429,83 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="9">
         <v>1</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="10">
         <v>2</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="10">
         <v>3</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="19">
+        <v>4</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="14">
-        <v>4</v>
-      </c>
-      <c r="B33" s="14" t="s">
+      <c r="C33" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="18" t="s">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="12"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="12"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="2"/>
@@ -3765,18 +4529,18 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="10" t="s">
         <v>17</v>
       </c>
@@ -3787,69 +4551,69 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="9">
         <v>1</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="10">
         <v>2</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="18"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="19"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="12"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="12"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="2"/>
